--- a/extra/Excel_Examples/PMSG_5.0_arms_MW.xlsx
+++ b/extra/Excel_Examples/PMSG_5.0_arms_MW.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t>Parameters</t>
   </si>
@@ -257,15 +257,6 @@
   </si>
   <si>
     <t>Total Mass</t>
-  </si>
-  <si>
-    <t>Stator Mass</t>
-  </si>
-  <si>
-    <t>ton</t>
-  </si>
-  <si>
-    <t>Rotor Mass</t>
   </si>
   <si>
     <t>Total Material Cost</t>
@@ -625,7 +616,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -685,7 +676,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>308.6941909387454</v>
+        <v>350.7031669465388</v>
       </c>
       <c r="D4" t="s"/>
       <c r="E4" t="s">
@@ -700,7 +691,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>484.0425578795533</v>
+        <v>482.0077409206639</v>
       </c>
       <c r="D5" t="n">
         <v>540.3539364174443</v>
@@ -717,7 +708,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>65.12803332133994</v>
+        <v>61.61991389324616</v>
       </c>
       <c r="D6" t="s"/>
       <c r="E6" t="s">
@@ -747,7 +738,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>700.5867614678158</v>
+        <v>700.26266345078</v>
       </c>
       <c r="D8" t="s"/>
       <c r="E8" t="s">
@@ -762,7 +753,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>519.6875204360784</v>
+        <v>529.5966857498614</v>
       </c>
       <c r="D9" t="n">
         <v>540.3539364174443</v>
@@ -777,7 +768,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>64.78407195796626</v>
+        <v>61.50797469191124</v>
       </c>
       <c r="D10" t="s"/>
       <c r="E10" t="s">
@@ -792,10 +783,10 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2958306490722835</v>
+        <v>0.3030233273198126</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3382120722776658</v>
+        <v>0.336816407125672</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -809,10 +800,10 @@
         <v>17</v>
       </c>
       <c r="C12" t="n">
-        <v>1.200257385181552</v>
+        <v>0.8891658339439761</v>
       </c>
       <c r="D12" t="n">
-        <v>32.13352440028535</v>
+        <v>35.54113777442073</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -826,10 +817,10 @@
         <v>18</v>
       </c>
       <c r="C13" t="n">
-        <v>2.762541245914078</v>
+        <v>2.810000577937819</v>
       </c>
       <c r="D13" t="n">
-        <v>2.951457115619152</v>
+        <v>2.939277639540334</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -843,10 +834,10 @@
         <v>19</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2896733477451706</v>
+        <v>0.2734377221910813</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3210784894196395</v>
+        <v>0.3203798021468884</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -860,10 +851,10 @@
         <v>20</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2051476557865372</v>
+        <v>0.2074423468580127</v>
       </c>
       <c r="D15" t="n">
-        <v>32.13352440028535</v>
+        <v>35.54113777442073</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -877,10 +868,10 @@
         <v>21</v>
       </c>
       <c r="C16" t="n">
-        <v>2.518226582396244</v>
+        <v>2.73059393912255</v>
       </c>
       <c r="D16" t="n">
-        <v>2.801938398851243</v>
+        <v>2.7958412021756</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -894,7 +885,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="n">
-        <v>6.546696119212324</v>
+        <v>6.528773693682887</v>
       </c>
       <c r="D17" t="s"/>
       <c r="E17" t="s">
@@ -909,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="C18" t="n">
-        <v>6.769071495571988</v>
+        <v>6.735515533175019</v>
       </c>
       <c r="D18" t="s"/>
       <c r="E18" t="s">
@@ -924,7 +915,7 @@
         <v>25</v>
       </c>
       <c r="C19" t="n">
-        <v>1.606676220014267</v>
+        <v>1.602078612053697</v>
       </c>
       <c r="D19" t="s"/>
       <c r="E19" t="s">
@@ -939,7 +930,7 @@
         <v>26</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2454178704429582</v>
+        <v>0.2453873709244719</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
@@ -954,7 +945,7 @@
         <v>28</v>
       </c>
       <c r="C21" t="n">
-        <v>4.312481051794097</v>
+        <v>4.540202081049983</v>
       </c>
       <c r="D21" t="s">
         <v>29</v>
@@ -969,7 +960,7 @@
         <v>30</v>
       </c>
       <c r="C22" t="n">
-        <v>92.8596360078346</v>
+        <v>87.4891383336693</v>
       </c>
       <c r="D22" t="s"/>
       <c r="E22" t="s">
@@ -984,7 +975,7 @@
         <v>31</v>
       </c>
       <c r="C23" t="n">
-        <v>59.9290702096641</v>
+        <v>59.69419125699766</v>
       </c>
       <c r="D23" t="s"/>
       <c r="E23" t="s">
@@ -999,7 +990,7 @@
         <v>32</v>
       </c>
       <c r="C24" t="n">
-        <v>13.89665704959611</v>
+        <v>13.14791504681055</v>
       </c>
       <c r="D24" t="s"/>
       <c r="E24" t="s">
@@ -1014,7 +1005,7 @@
         <v>33</v>
       </c>
       <c r="C25" t="n">
-        <v>16.98480306061747</v>
+        <v>16.06967394610178</v>
       </c>
       <c r="D25" t="s"/>
       <c r="E25" t="s">
@@ -1029,7 +1020,7 @@
         <v>34</v>
       </c>
       <c r="C26" t="n">
-        <v>97.68718592166151</v>
+        <v>88.16606631655816</v>
       </c>
       <c r="D26" t="s"/>
       <c r="E26" t="s">
@@ -1044,7 +1035,7 @@
         <v>35</v>
       </c>
       <c r="C27" t="n">
-        <v>89.96132708691295</v>
+        <v>88.05403408066532</v>
       </c>
       <c r="D27" t="s"/>
       <c r="E27" t="s">
@@ -1059,7 +1050,7 @@
         <v>36</v>
       </c>
       <c r="C28" t="n">
-        <v>11.03580574709839</v>
+        <v>10.03303463854425</v>
       </c>
       <c r="D28" t="s"/>
       <c r="E28" t="s">
@@ -1074,7 +1065,7 @@
         <v>37</v>
       </c>
       <c r="C29" t="n">
-        <v>65.00174520548421</v>
+        <v>61.24239683356851</v>
       </c>
       <c r="D29" t="s"/>
       <c r="E29" t="s">
@@ -1089,7 +1080,7 @@
         <v>38</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8317407614285612</v>
+        <v>0.8012672392740139</v>
       </c>
       <c r="D30" t="s"/>
       <c r="E30" t="s">
@@ -1104,7 +1095,7 @@
         <v>40</v>
       </c>
       <c r="C31" t="n">
-        <v>0.308722949828834</v>
+        <v>0.3104715658682638</v>
       </c>
       <c r="D31" t="s">
         <v>41</v>
@@ -1121,7 +1112,7 @@
         <v>42</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3017124075122754</v>
+        <v>0.2797799244110016</v>
       </c>
       <c r="D32" t="s">
         <v>41</v>
@@ -1138,7 +1129,7 @@
         <v>43</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7331569957288933</v>
+        <v>0.7062954097778423</v>
       </c>
       <c r="D33" t="s">
         <v>41</v>
@@ -1155,10 +1146,10 @@
         <v>44</v>
       </c>
       <c r="C34" t="n">
-        <v>0.09661876843926036</v>
+        <v>0.0968655130050704</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8317407614285612</v>
+        <v>0.8012672392740139</v>
       </c>
       <c r="E34" t="s">
         <v>39</v>
@@ -1172,7 +1163,7 @@
         <v>45</v>
       </c>
       <c r="C35" t="n">
-        <v>1.512255929870112</v>
+        <v>1.456849525952753</v>
       </c>
       <c r="D35" t="s"/>
       <c r="E35" t="s">
@@ -1187,7 +1178,7 @@
         <v>46</v>
       </c>
       <c r="C36" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D36" t="s"/>
       <c r="E36" t="s">
@@ -1202,7 +1193,7 @@
         <v>48</v>
       </c>
       <c r="C37" t="n">
-        <v>22.385</v>
+        <v>23.595</v>
       </c>
       <c r="D37" t="s"/>
       <c r="E37" t="s">
@@ -1217,7 +1208,7 @@
         <v>50</v>
       </c>
       <c r="C38" t="n">
-        <v>1853.819124295139</v>
+        <v>1949.059872873486</v>
       </c>
       <c r="D38" t="s"/>
       <c r="E38" t="s">
@@ -1232,7 +1223,7 @@
         <v>52</v>
       </c>
       <c r="C39" t="n">
-        <v>926.4438033064006</v>
+        <v>876.527668577339</v>
       </c>
       <c r="D39" t="s">
         <v>53</v>
@@ -1249,7 +1240,7 @@
         <v>55</v>
       </c>
       <c r="C40" t="n">
-        <v>0.08921523971295292</v>
+        <v>0.09850370724205422</v>
       </c>
       <c r="D40" t="s"/>
       <c r="E40" t="s">
@@ -1264,7 +1255,7 @@
         <v>57</v>
       </c>
       <c r="C41" t="n">
-        <v>0.009193521324628884</v>
+        <v>0.009766098299561002</v>
       </c>
       <c r="D41" t="s"/>
       <c r="E41" t="s">
@@ -1279,7 +1270,7 @@
         <v>59</v>
       </c>
       <c r="C42" t="n">
-        <v>666</v>
+        <v>702</v>
       </c>
       <c r="D42" t="s"/>
       <c r="E42" t="s">
@@ -1294,7 +1285,7 @@
         <v>61</v>
       </c>
       <c r="C43" t="n">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="D43" t="s"/>
       <c r="E43" t="s">
@@ -1309,7 +1300,7 @@
         <v>63</v>
       </c>
       <c r="C44" t="n">
-        <v>248.0823964959887</v>
+        <v>233.7122385653294</v>
       </c>
       <c r="D44" t="s">
         <v>64</v>
@@ -1326,7 +1317,7 @@
         <v>66</v>
       </c>
       <c r="C45" t="n">
-        <v>3.734419758885957</v>
+        <v>3.750456860787476</v>
       </c>
       <c r="D45" t="s">
         <v>67</v>
@@ -1343,7 +1334,7 @@
         <v>69</v>
       </c>
       <c r="C46" t="n">
-        <v>59.99999999999955</v>
+        <v>59.99999991717107</v>
       </c>
       <c r="D46" t="s">
         <v>70</v>
@@ -1360,7 +1351,7 @@
         <v>72</v>
       </c>
       <c r="C47" t="n">
-        <v>93.00054534221761</v>
+        <v>93.01512432557283</v>
       </c>
       <c r="D47" t="s">
         <v>73</v>
@@ -1377,7 +1368,7 @@
         <v>75</v>
       </c>
       <c r="C48" t="n">
-        <v>57.80506676720042</v>
+        <v>58.99952005503634</v>
       </c>
       <c r="D48" t="s"/>
       <c r="E48" t="s">
@@ -1392,7 +1383,7 @@
         <v>77</v>
       </c>
       <c r="C49" t="n">
-        <v>2.161780852581502</v>
+        <v>1.897406785623685</v>
       </c>
       <c r="D49" t="s"/>
       <c r="E49" t="s">
@@ -1407,7 +1398,7 @@
         <v>78</v>
       </c>
       <c r="C50" t="n">
-        <v>5.817570626986895</v>
+        <v>5.700674009428151</v>
       </c>
       <c r="D50" t="s"/>
       <c r="E50" t="s">
@@ -1422,7 +1413,7 @@
         <v>79</v>
       </c>
       <c r="C51" t="n">
-        <v>34.84167090021736</v>
+        <v>34.45256877826129</v>
       </c>
       <c r="D51" t="s"/>
       <c r="E51" t="s">
@@ -1437,7 +1428,7 @@
         <v>80</v>
       </c>
       <c r="C52" t="n">
-        <v>100.6260891469862</v>
+        <v>101.0501696283493</v>
       </c>
       <c r="D52" t="s"/>
       <c r="E52" t="s">
@@ -1452,41 +1443,11 @@
         <v>81</v>
       </c>
       <c r="C53" t="n">
-        <v>60.52212771297811</v>
+        <v>257.6149770537058</v>
       </c>
       <c r="D53" t="s"/>
       <c r="E53" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" t="n">
-        <v>40.10396143400807</v>
-      </c>
-      <c r="D54" t="s"/>
-      <c r="E54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" t="n">
-        <v>282.8209565112255</v>
-      </c>
-      <c r="D55" t="s"/>
-      <c r="E55" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
